--- a/BangCongViec.xlsx
+++ b/BangCongViec.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiexin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ISC\project\TeamNgaoDa\Website-Nha-Hang\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,8 +23,55 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+  <si>
+    <t>trạng thái</t>
+  </si>
+  <si>
+    <t>bộ phận</t>
+  </si>
+  <si>
+    <t>người thực hiện</t>
+  </si>
+  <si>
+    <t>tên công việc</t>
+  </si>
+  <si>
+    <t>deadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">backend controller </t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>chưa xong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frontend </t>
+  </si>
+  <si>
+    <t>phân trang employee</t>
+  </si>
+  <si>
+    <t>tableDetail</t>
+  </si>
+  <si>
+    <t>menuType</t>
+  </si>
+  <si>
+    <t>materialType</t>
+  </si>
+  <si>
+    <t>tìm kiếm</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -336,12 +383,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BangCongViec.xlsx
+++ b/BangCongViec.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>trạng thái</t>
   </si>
@@ -66,14 +66,37 @@
   </si>
   <si>
     <t>tìm kiếm</t>
+  </si>
+  <si>
+    <t>backend</t>
+  </si>
+  <si>
+    <t>billDetail</t>
+  </si>
+  <si>
+    <t>giao diện</t>
+  </si>
+  <si>
+    <t>thêm hình ảnh menu</t>
+  </si>
+  <si>
+    <t>backend, frontend</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -89,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -97,12 +120,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,77 +439,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>